--- a/log_history/Y3_B2526_Microbiology_scanner1763883949081_549637c76d0172ab203bad6d9190541c25d2dcc85c98594166a321bedb9095fa.xlsx
+++ b/log_history/Y3_B2526_Microbiology_scanner1763883949081_549637c76d0172ab203bad6d9190541c25d2dcc85c98594166a321bedb9095fa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
